--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstyn/Dropbox/Rabies/kirstynWork/TRAINING_WORKSHOPS/June2023_nanopore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FAA85A9-4A67-CE46-A3B2-8D960A8D69C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A0A178-3D87-7342-A4D1-8E9471A78F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3860" windowWidth="26440" windowHeight="15440" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
+    <workbookView xWindow="3360" yWindow="2960" windowWidth="22020" windowHeight="11680" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Monday</t>
   </si>
@@ -114,6 +114,84 @@
       </rPr>
       <t>: SPRI bead cleanup/ Flowcell loading/ multiplex PCR setup/ Quantification</t>
     </r>
+  </si>
+  <si>
+    <t>Lab orientation</t>
+  </si>
+  <si>
+    <t>Normalisations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Masterclass sessions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: SPRI bead cleanup/ Flowcell loading/ multiplex PCR setup/ Normalisations</t>
+    </r>
+  </si>
+  <si>
+    <t>SPRI bead cleanup and quantification</t>
+  </si>
+  <si>
+    <t>Explainer &amp; End prep and barcoding</t>
+  </si>
+  <si>
+    <t>Explainer &amp; Adapter ligation</t>
+  </si>
+  <si>
+    <t>RABV seq in practice (Essel/Gurdeep)</t>
+  </si>
+  <si>
+    <t>Quantification and flowcell priming/loading</t>
+  </si>
+  <si>
+    <t>MinKNOW and RAMPART masterclass</t>
+  </si>
+  <si>
+    <t>Lab recap</t>
+  </si>
+  <si>
+    <t>Looking at workshop data</t>
+  </si>
+  <si>
+    <t>Lab-on-ssd</t>
+  </si>
+  <si>
+    <t>Introduction to command line</t>
+  </si>
+  <si>
+    <t>Command line practical</t>
+  </si>
+  <si>
+    <t>Alignments</t>
+  </si>
+  <si>
+    <t>Tree building</t>
+  </si>
+  <si>
+    <t>Tree visualisation</t>
+  </si>
+  <si>
+    <t>Tree annotation</t>
+  </si>
+  <si>
+    <t>Bioinformatics pipeline</t>
+  </si>
+  <si>
+    <t>Microreact</t>
   </si>
 </sst>
 </file>
@@ -177,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -193,6 +271,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,17 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE49E0F-5DF1-3148-959B-EE28F30B7C43}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="54.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -542,6 +629,18 @@
       <c r="A2" s="2">
         <v>830</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -550,19 +649,34 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -584,101 +698,135 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="3">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="3">
+        <v>1530</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>1530</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="2">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
         <v>17</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstyn/Dropbox/Rabies/kirstynWork/TRAINING_WORKSHOPS/June2023_nanopore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstyn/Github/RAGE-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A0A178-3D87-7342-A4D1-8E9471A78F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C6F688-F583-A240-BF10-05DEF2E8B6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="2960" windowWidth="22020" windowHeight="11680" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Monday</t>
   </si>
@@ -71,18 +71,9 @@
     <t>Genomic surveillance for rabies virus (Kirstyn)</t>
   </si>
   <si>
-    <t>RABV in the Philippines (Essel)</t>
-  </si>
-  <si>
-    <t>RABV in East Africa (Gurdeep)</t>
-  </si>
-  <si>
     <t>Introduction to nanopore sequencing (Kirstyn)</t>
   </si>
   <si>
-    <t>Sample-to-sequence-to-interpretation pipeline (Essel/Gurdeep)</t>
-  </si>
-  <si>
     <t>Gurdeep</t>
   </si>
   <si>
@@ -93,27 +84,6 @@
   </si>
   <si>
     <t>Kirstyn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Masterclass sessions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: SPRI bead cleanup/ Flowcell loading/ multiplex PCR setup/ Quantification</t>
-    </r>
   </si>
   <si>
     <t>Lab orientation</t>
@@ -188,10 +158,25 @@
     <t>Tree annotation</t>
   </si>
   <si>
-    <t>Bioinformatics pipeline</t>
-  </si>
-  <si>
     <t>Microreact</t>
+  </si>
+  <si>
+    <t>Lab orientation; Sample-to-sequence-to-interpretation pipeline (Essel/Gurdeep)</t>
+  </si>
+  <si>
+    <t>Rowan</t>
+  </si>
+  <si>
+    <t>Kat</t>
+  </si>
+  <si>
+    <t>Pre-PCR explainer; primal scheme practical</t>
+  </si>
+  <si>
+    <t>Artic pipeline</t>
+  </si>
+  <si>
+    <t>MADDOG</t>
   </si>
 </sst>
 </file>
@@ -273,10 +258,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,20 +577,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE49E0F-5DF1-3148-959B-EE28F30B7C43}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="54.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -630,16 +616,16 @@
         <v>830</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -650,14 +636,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>930</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -669,14 +657,14 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -699,13 +687,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -713,10 +704,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -736,27 +727,30 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -776,10 +770,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -788,37 +782,66 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>12</v>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstyn/Github/RAGE-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C6F688-F583-A240-BF10-05DEF2E8B6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DA1F5-5303-E84B-B5CF-7C20BC634DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2960" windowWidth="22020" windowHeight="11680" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25040" windowHeight="14160" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Monday</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>MADDOG</t>
+  </si>
+  <si>
+    <t>Troubleshoot</t>
+  </si>
+  <si>
+    <t>Genbank record</t>
+  </si>
+  <si>
+    <t>Problems with sequences- things to watch out for</t>
   </si>
 </sst>
 </file>
@@ -240,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,15 +591,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE49E0F-5DF1-3148-959B-EE28F30B7C43}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="81.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
@@ -783,6 +795,17 @@
       <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstyn/Github/RAGE-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DA1F5-5303-E84B-B5CF-7C20BC634DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3330C71-7069-9B4A-A600-DABA22B85232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="25040" windowHeight="14160" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
+    <workbookView xWindow="1260" yWindow="1340" windowWidth="33380" windowHeight="15940" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Monday</t>
   </si>
@@ -131,9 +131,6 @@
     <t>MinKNOW and RAMPART masterclass</t>
   </si>
   <si>
-    <t>Lab recap</t>
-  </si>
-  <si>
     <t>Looking at workshop data</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
     <t>Command line practical</t>
   </si>
   <si>
+    <t>Metadata</t>
+  </si>
+  <si>
     <t>Alignments</t>
   </si>
   <si>
@@ -179,13 +179,19 @@
     <t>MADDOG</t>
   </si>
   <si>
-    <t>Troubleshoot</t>
-  </si>
-  <si>
     <t>Genbank record</t>
   </si>
   <si>
-    <t>Problems with sequences- things to watch out for</t>
+    <t>Data organization</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Working 9-5: fitting the pipeline into your working day</t>
+  </si>
+  <si>
+    <t>Lab recap; Working 9-5: fitting the pipeline into your working day</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,11 +251,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -273,6 +297,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -589,24 +625,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE49E0F-5DF1-3148-959B-EE28F30B7C43}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="81.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>830</v>
       </c>
@@ -631,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>30</v>
@@ -640,7 +676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>9</v>
       </c>
@@ -651,18 +687,21 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>930</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -673,13 +712,13 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1030</v>
       </c>
@@ -691,7 +730,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>11</v>
       </c>
@@ -702,7 +741,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>32</v>
@@ -711,7 +750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>12</v>
       </c>
@@ -722,7 +761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>13</v>
       </c>
@@ -734,7 +773,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>14</v>
       </c>
@@ -754,7 +793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>15</v>
       </c>
@@ -765,7 +804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1530</v>
       </c>
@@ -777,7 +816,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -785,10 +824,16 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -796,76 +841,83 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="E14" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="F19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="2:6" s="11" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="D20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstyn/Github/RAGE-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3330C71-7069-9B4A-A600-DABA22B85232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A7BD15-1FF5-1440-A5F1-AF02253B8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1340" windowWidth="33380" windowHeight="15940" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
+    <workbookView xWindow="3920" yWindow="460" windowWidth="36320" windowHeight="15940" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Monday</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Arrival at SCENE</t>
-  </si>
-  <si>
     <t>Workshop welcome and introduction</t>
   </si>
   <si>
@@ -90,6 +87,63 @@
   </si>
   <si>
     <t>Normalisations</t>
+  </si>
+  <si>
+    <t>SPRI bead cleanup and quantification</t>
+  </si>
+  <si>
+    <t>Explainer &amp; End prep and barcoding</t>
+  </si>
+  <si>
+    <t>Explainer &amp; Adapter ligation</t>
+  </si>
+  <si>
+    <t>RABV seq in practice (Essel/Gurdeep)</t>
+  </si>
+  <si>
+    <t>Quantification and flowcell priming/loading</t>
+  </si>
+  <si>
+    <t>MinKNOW and RAMPART masterclass</t>
+  </si>
+  <si>
+    <t>Introduction to command line</t>
+  </si>
+  <si>
+    <t>Command line practical</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Alignments</t>
+  </si>
+  <si>
+    <t>Tree annotation</t>
+  </si>
+  <si>
+    <t>Microreact</t>
+  </si>
+  <si>
+    <t>Lab orientation; Sample-to-sequence-to-interpretation pipeline (Essel/Gurdeep)</t>
+  </si>
+  <si>
+    <t>Rowan</t>
+  </si>
+  <si>
+    <t>Kat</t>
+  </si>
+  <si>
+    <t>Pre-PCR explainer; primal scheme practical</t>
+  </si>
+  <si>
+    <t>Artic pipeline</t>
+  </si>
+  <si>
+    <t>MADDOG</t>
+  </si>
+  <si>
+    <t>Lab recap; Working 9-5: fitting the pipeline into your working day</t>
   </si>
   <si>
     <r>
@@ -109,89 +163,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: SPRI bead cleanup/ Flowcell loading/ multiplex PCR setup/ Normalisations</t>
+      <t>: SPRI bead cleanup (GJ)/ Flowcell loading/ multiplex PCR setup/ Normalisations</t>
     </r>
   </si>
   <si>
-    <t>SPRI bead cleanup and quantification</t>
-  </si>
-  <si>
-    <t>Explainer &amp; End prep and barcoding</t>
-  </si>
-  <si>
-    <t>Explainer &amp; Adapter ligation</t>
-  </si>
-  <si>
-    <t>RABV seq in practice (Essel/Gurdeep)</t>
-  </si>
-  <si>
-    <t>Quantification and flowcell priming/loading</t>
-  </si>
-  <si>
-    <t>MinKNOW and RAMPART masterclass</t>
-  </si>
-  <si>
-    <t>Looking at workshop data</t>
-  </si>
-  <si>
-    <t>Lab-on-ssd</t>
-  </si>
-  <si>
-    <t>Introduction to command line</t>
-  </si>
-  <si>
-    <t>Command line practical</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>Alignments</t>
-  </si>
-  <si>
-    <t>Tree building</t>
-  </si>
-  <si>
-    <t>Tree visualisation</t>
-  </si>
-  <si>
-    <t>Tree annotation</t>
-  </si>
-  <si>
-    <t>Microreact</t>
-  </si>
-  <si>
-    <t>Lab orientation; Sample-to-sequence-to-interpretation pipeline (Essel/Gurdeep)</t>
-  </si>
-  <si>
-    <t>Rowan</t>
-  </si>
-  <si>
-    <t>Kat</t>
-  </si>
-  <si>
-    <t>Pre-PCR explainer; primal scheme practical</t>
-  </si>
-  <si>
-    <t>Artic pipeline</t>
-  </si>
-  <si>
-    <t>MADDOG</t>
-  </si>
-  <si>
-    <t>Genbank record</t>
-  </si>
-  <si>
-    <t>Data organization</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>Working 9-5: fitting the pipeline into your working day</t>
-  </si>
-  <si>
-    <t>Lab recap; Working 9-5: fitting the pipeline into your working day</t>
+    <t>Introduction to genetic data</t>
+  </si>
+  <si>
+    <t>Lab-on-ssd set-up</t>
+  </si>
+  <si>
+    <t>GenBank submission</t>
+  </si>
+  <si>
+    <t>Data organisation</t>
+  </si>
+  <si>
+    <t>QC, coverage plots and statistics</t>
+  </si>
+  <si>
+    <t>Tree building &amp; visualisation</t>
   </si>
 </sst>
 </file>
@@ -273,19 +264,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -296,20 +278,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,250 +613,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE49E0F-5DF1-3148-959B-EE28F30B7C43}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="44.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="81.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="44.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>830</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1030</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>1530</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>930</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>1030</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>1530</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
@@ -879,52 +871,35 @@
         <v>13</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="10" t="s">
+    </row>
+    <row r="19" spans="2:6" s="11" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" s="11" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="8"/>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstyn/Github/RAGE-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A7BD15-1FF5-1440-A5F1-AF02253B8AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D754A42F-40B8-7A47-9F5E-E6A0D719A364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="460" windowWidth="36320" windowHeight="15940" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
+    <workbookView xWindow="1940" yWindow="780" windowWidth="36320" windowHeight="15940" xr2:uid="{78CA4E0A-78DF-664D-AC14-0C0175A1D01E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="44.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,11 +626,11 @@
     <col min="3" max="3" width="34.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="44.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>830</v>
       </c>
@@ -664,7 +664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -681,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>10</v>
       </c>
@@ -695,7 +695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1030</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>11</v>
       </c>
@@ -727,7 +727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>12</v>
       </c>
@@ -741,7 +741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>13</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>14</v>
       </c>
@@ -773,7 +773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>15</v>
       </c>
@@ -784,7 +784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1530</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>16</v>
       </c>
@@ -806,14 +806,11 @@
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>17</v>
       </c>
@@ -821,9 +818,11 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -891,7 +890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="8"/>
     </row>
   </sheetData>
